--- a/Table/client/lua/exe/temp/H 货币栏配置.xlsx
+++ b/Table/client/lua/exe/temp/H 货币栏配置.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ol_and_v13\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_and_ghqd\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647A0E5-50E2-4853-AA11-E09B664D0A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{323F3E01-B7DC-48C2-B84C-E20A75D43FC5}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DA648820-3153-43D5-8CAF-6610C06D36CE}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,40 +79,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
-  <si>
-    <t>装备界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>养成系统</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>商城-常用道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>角色界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活跃度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>称号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>云购</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VIP商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,10 +93,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拍卖行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -136,18 +104,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>商城-成长道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-绑元商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-荣誉商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -160,144 +116,461 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>大分页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIEquip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRole</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIAuction</t>
+  </si>
+  <si>
+    <t>UICompound</t>
+  </si>
+  <si>
+    <t>UIVIPStore</t>
+  </si>
+  <si>
+    <t>UICloudBuy</t>
+  </si>
+  <si>
+    <t>UILiveness</t>
+  </si>
+  <si>
+    <t>UITitle</t>
+  </si>
+  <si>
+    <t>UIAdv</t>
+  </si>
+  <si>
+    <t>UICopy</t>
+  </si>
+  <si>
+    <t>货币id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITopFightEnd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIArena</t>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITransApp</t>
+  </si>
+  <si>
+    <t>UIMoneyTreePanel</t>
+  </si>
+  <si>
+    <t>2,3,99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIStore_24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-威望商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,11,26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UITongTianTower</t>
+  </si>
+  <si>
+    <t>裝備介面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日活動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>養成系統</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-成長道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-綁元商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-榮譽商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色介面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>競技殿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活躍度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青雲之巔結算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲購</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>養成幻化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍賣行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搖錢樹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔活動</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>备注不打表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大分页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小分页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIEquip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRole</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIAuction</t>
-  </si>
-  <si>
-    <t>UICompound</t>
-  </si>
-  <si>
-    <t>UIVIPStore</t>
-  </si>
-  <si>
-    <t>UICloudBuy</t>
-  </si>
-  <si>
-    <t>UILiveness</t>
-  </si>
-  <si>
-    <t>UITitle</t>
-  </si>
-  <si>
-    <t>UIAdv</t>
-  </si>
-  <si>
-    <t>UICopy</t>
-  </si>
-  <si>
-    <t>货币id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITopFightEnd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIArena</t>
-  </si>
-  <si>
-    <t>青云之巅结算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技殿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_99</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITransApp</t>
-  </si>
-  <si>
-    <t>养成幻化</t>
-  </si>
-  <si>
-    <t>UIMoneyTreePanel</t>
-  </si>
-  <si>
-    <t>摇钱树</t>
-  </si>
-  <si>
-    <t>2,3,99</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIStore_24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-威望商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,11,26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITongTianTower</t>
-  </si>
-  <si>
-    <t>通天塔活动</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>장비 화면</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>일일 이벤트</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>육성 시스템</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-상용 아이템</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-성장 아이템</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-귀속원보 상점</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-명예상점</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-명성 상점</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>상점-도정 상점</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>캐릭터 화면</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>경기 대전</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>활약도</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>칭호</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>청운의 정상 결산</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1원 구매</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VIP상점</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>육성 변신</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>합성</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>경매장</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>황금나무</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>통천탑 이벤트</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +614,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -386,6 +678,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,11 +962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -680,276 +975,341 @@
     <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="21.25" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3">
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Table/client/lua/exe/temp/H 货币栏配置.xlsx
+++ b/Table/client/lua/exe/temp/H 货币栏配置.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_and_ghqd\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ol_and_v13\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647A0E5-50E2-4853-AA11-E09B664D0A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="30375" yWindow="1320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{323F3E01-B7DC-48C2-B84C-E20A75D43FC5}">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DA648820-3153-43D5-8CAF-6610C06D36CE}">
       <text>
         <r>
           <rPr>
@@ -79,12 +79,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+  <si>
+    <t>装备界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成系统</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>商城-常用道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>角色界面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>称号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>VIP商城</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,6 +121,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>拍卖行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -104,6 +136,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>商城-成长道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-绑元商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-荣誉商城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -116,6 +160,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>备注不打表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>大分页</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -191,6 +239,14 @@
     <t>UIArena</t>
   </si>
   <si>
+    <t>青云之巅结算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技殿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2,3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,9 +258,15 @@
     <t>UITransApp</t>
   </si>
   <si>
+    <t>养成幻化</t>
+  </si>
+  <si>
     <t>UIMoneyTreePanel</t>
   </si>
   <si>
+    <t>摇钱树</t>
+  </si>
+  <si>
     <t>2,3,99</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -228,349 +290,14 @@
     <t>UITongTianTower</t>
   </si>
   <si>
-    <t>裝備介面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日活動</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>養成系統</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-成長道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-綁元商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-榮譽商城</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色介面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>競技殿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>活躍度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青雲之巔結算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雲購</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>養成幻化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍賣行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>搖錢樹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔活動</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注不打表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>장비 화면</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>일일 이벤트</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>육성 시스템</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-상용 아이템</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-성장 아이템</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-귀속원보 상점</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-명예상점</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-명성 상점</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>상점-도정 상점</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>캐릭터 화면</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>경기 대전</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>활약도</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>칭호</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>청운의 정상 결산</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1원 구매</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VIP상점</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>육성 변신</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>합성</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>경매장</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>황금나무</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>통천탑 이벤트</t>
-    </r>
+    <t>通天塔活动</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,21 +341,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,12 +352,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -678,9 +386,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -975,341 +680,276 @@
     <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="21.25" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3">
         <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
